--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/C/15/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/C/15/seed4/result_data_KNN.xlsx
@@ -587,7 +587,7 @@
         <v>10.18</v>
       </c>
       <c r="C9" t="n">
-        <v>-12.024</v>
+        <v>-11.445</v>
       </c>
       <c r="D9" t="n">
         <v>-9.9</v>
@@ -740,7 +740,7 @@
         <v>5.81</v>
       </c>
       <c r="C18" t="n">
-        <v>-13.934</v>
+        <v>-12.397</v>
       </c>
       <c r="D18" t="n">
         <v>-8.869999999999999</v>
@@ -774,7 +774,7 @@
         <v>5.51</v>
       </c>
       <c r="C20" t="n">
-        <v>-13.18</v>
+        <v>-12.581</v>
       </c>
       <c r="D20" t="n">
         <v>-8.140000000000001</v>
